--- a/Data/Admin/testdata.xlsx
+++ b/Data/Admin/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\robot-scripts\sabongeros\Data\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A87AF6-B997-4B44-8291-CD63331CD142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBC78CA-4B1F-43D1-8582-3675B4159338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A5B3BB-D570-4591-8F6A-59A139A91B3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{E7A5B3BB-D570-4591-8F6A-59A139A91B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="forgotpassword" sheetId="3" r:id="rId3"/>
     <sheet name="changepassword" sheetId="4" r:id="rId4"/>
     <sheet name="editprofile" sheetId="5" r:id="rId5"/>
+    <sheet name="addscout" sheetId="6" r:id="rId6"/>
+    <sheet name="editscout" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="89">
   <si>
     <t>${email}</t>
   </si>
@@ -187,51 +189,24 @@
     <t>Test1!</t>
   </si>
   <si>
-    <t>This field is required</t>
-  </si>
-  <si>
-    <t>Minimum of 8 digits</t>
-  </si>
-  <si>
-    <t>It must contain at least one lowercase letter, one uppercase letter, one numeric digit, and one special character</t>
-  </si>
-  <si>
-    <t>Password do not match</t>
-  </si>
-  <si>
     <t>${firstname}</t>
   </si>
   <si>
     <t>${lastname}</t>
   </si>
   <si>
-    <t>${bday}</t>
-  </si>
-  <si>
     <t>Max</t>
   </si>
   <si>
     <t>stevemax</t>
   </si>
   <si>
-    <t>stevemax@citrof.com</t>
-  </si>
-  <si>
-    <t>01/01/1990</t>
-  </si>
-  <si>
     <t>Steve</t>
   </si>
   <si>
     <t>stevemax@citrof</t>
   </si>
   <si>
-    <t>Invalid input</t>
-  </si>
-  <si>
-    <t>stevemax!</t>
-  </si>
-  <si>
     <t>tester101</t>
   </si>
   <si>
@@ -242,13 +217,94 @@
   </si>
   <si>
     <t>Email Address is required</t>
+  </si>
+  <si>
+    <t>Password mismatched.</t>
+  </si>
+  <si>
+    <t>The password must be at least 8 characters.</t>
+  </si>
+  <si>
+    <t>The password format is invalid.</t>
+  </si>
+  <si>
+    <t>The confirm password field is required.</t>
+  </si>
+  <si>
+    <t>The email must be a valid email address.</t>
+  </si>
+  <si>
+    <t>${address}</t>
+  </si>
+  <si>
+    <t>14 Test Street</t>
+  </si>
+  <si>
+    <t>Email already used</t>
+  </si>
+  <si>
+    <t>Username already used</t>
+  </si>
+  <si>
+    <t>stevemaxx</t>
+  </si>
+  <si>
+    <t>qascout@citrof.com</t>
+  </si>
+  <si>
+    <t>qascout</t>
+  </si>
+  <si>
+    <t>stevemaxx@citrof.com</t>
+  </si>
+  <si>
+    <t>Email is required</t>
+  </si>
+  <si>
+    <t>Username is required</t>
+  </si>
+  <si>
+    <t>Password is required</t>
+  </si>
+  <si>
+    <t>Email is invalid</t>
+  </si>
+  <si>
+    <t>Mobile number is required</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>fakepassword</t>
+  </si>
+  <si>
+    <t>johndoe</t>
+  </si>
+  <si>
+    <t>johndoe919</t>
+  </si>
+  <si>
+    <t>johndoe919@auto.com</t>
+  </si>
+  <si>
+    <t>johndoe911@auto.com</t>
+  </si>
+  <si>
+    <t>johndoe911</t>
+  </si>
+  <si>
+    <t>First name is required</t>
+  </si>
+  <si>
+    <t>Last name is required</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,13 +339,32 @@
       <color rgb="FFDC3545"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF8C8C8C"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -305,7 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -313,7 +388,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -321,6 +395,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -639,11 +726,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF244A4-630B-4627-84C5-165E6177D6A2}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
@@ -651,7 +738,7 @@
     <col min="4" max="4" width="70.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -665,32 +752,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -701,21 +788,21 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="p@ssw0rdS123" xr:uid="{7F5B9D8D-7741-4BE1-BA7D-EE38C1DAB3D2}"/>
@@ -737,7 +824,7 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
@@ -751,7 +838,7 @@
     <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -783,7 +870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -812,7 +899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -841,7 +928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -870,7 +957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -900,7 +987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -929,7 +1016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -959,7 +1046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -988,7 +1075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1017,7 +1104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1046,7 +1133,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1075,7 +1162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1104,7 +1191,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1133,7 +1220,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1162,7 +1249,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1194,7 +1281,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1256,14 +1343,14 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1274,7 +1361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1282,7 +1369,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1305,17 +1392,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D81AD8-5DA5-43EE-A627-6C1A5190A4F4}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.28515625" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="102.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1329,57 +1418,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>49</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>55</v>
+      <c r="D5" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1393,10 +1479,10 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
@@ -1408,117 +1494,648 @@
     <col min="8" max="8" width="34.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F2">
         <v>9221244785</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>62</v>
+      <c r="G2" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>62</v>
+        <v>9221244785</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F4">
         <v>9221244785</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>65</v>
+      <c r="G4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{B63A8CF0-C5CE-4AD2-ADD8-E4BD6FD58BA2}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{28FC330F-FC0E-4098-8942-E8DDDCA78464}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{7DA74E22-E53E-4CBA-82E9-E6FF1A72825A}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{CE554445-3D45-4741-8DF8-90964614DF68}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{322C9822-12D2-4BF8-9FE4-8230C9DEA5C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C509FFD0-A357-4CA7-9BBA-3AA633F09566}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2">
+        <v>92324234124</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3">
+        <v>92324234124</v>
+      </c>
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5">
+        <v>92324234124</v>
+      </c>
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6">
+        <v>92324234124</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7">
+        <v>92324234124</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8">
+        <v>92324234124</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{B141DFF3-A076-467F-B1A6-FBE1F88B7459}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEA9730-08BA-4020-965E-EA64351C9B21}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2">
+        <v>92324234124</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3">
+        <v>92324234124</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4">
+        <v>92324234124</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5">
+        <v>92324234124</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7">
+        <v>92324234124</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8">
+        <v>92324234124</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9">
+        <v>92324234124</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <v>92324234124</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="7:7">
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="7:7">
+      <c r="G24" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{1BCAAFF5-B3DF-42E4-8F9E-8BA73C1993CF}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{2373D359-BA58-4CFE-8D92-4DC17D3F8FAC}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{C8440C79-0140-4CD4-B542-181BDF1CB116}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{5373F120-BEB4-4A6F-B307-1F2317FA154E}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{3893DB44-699A-47E7-963A-4B67DBF6318D}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{9B3D69F5-4332-4A85-B4AC-0BACE3170975}"/>
+    <hyperlink ref="D3" r:id="rId7" xr:uid="{D254CF6C-1D58-4F86-9483-C32AC4C0E304}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+</worksheet>
 </file>
--- a/Data/Admin/testdata.xlsx
+++ b/Data/Admin/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\robot-scripts\sabongeros\Data\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBC78CA-4B1F-43D1-8582-3675B4159338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94FBD57-04A6-4CC4-B0AC-DBE9838BEF81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{E7A5B3BB-D570-4591-8F6A-59A139A91B3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{E7A5B3BB-D570-4591-8F6A-59A139A91B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="88">
   <si>
     <t>${email}</t>
   </si>
@@ -294,10 +294,7 @@
     <t>johndoe911</t>
   </si>
   <si>
-    <t>First name is required</t>
-  </si>
-  <si>
-    <t>Last name is required</t>
+    <t>qaadmin</t>
   </si>
 </sst>
 </file>
@@ -1613,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C509FFD0-A357-4CA7-9BBA-3AA633F09566}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1850,10 +1847,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEA9730-08BA-4020-965E-EA64351C9B21}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1893,16 +1890,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6"/>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
       <c r="C2" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>85</v>
+      <c r="D2" t="s">
+        <v>82</v>
       </c>
       <c r="E2">
         <v>92324234124</v>
@@ -1913,19 +1912,22 @@
       <c r="G2" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
-      <c r="A3" s="5" t="s">
-        <v>23</v>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E3">
         <v>92324234124</v>
@@ -1936,13 +1938,13 @@
       <c r="G3" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>88</v>
+      <c r="H3" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -1950,192 +1952,40 @@
       <c r="C4" t="s">
         <v>80</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="E4">
         <v>92324234124</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
         <v>81</v>
       </c>
-      <c r="H4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5">
-        <v>92324234124</v>
-      </c>
-      <c r="F5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7">
-        <v>92324234124</v>
-      </c>
-      <c r="G7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8">
-        <v>92324234124</v>
-      </c>
-      <c r="F8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9">
-        <v>92324234124</v>
-      </c>
-      <c r="F9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10">
-        <v>92324234124</v>
-      </c>
-      <c r="F10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7">
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="7:7">
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="7:7">
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="7:7">
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="7:7">
-      <c r="G24" s="13"/>
+    <row r="14" spans="1:8">
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{1BCAAFF5-B3DF-42E4-8F9E-8BA73C1993CF}"/>
-    <hyperlink ref="D9" r:id="rId2" xr:uid="{2373D359-BA58-4CFE-8D92-4DC17D3F8FAC}"/>
-    <hyperlink ref="D6" r:id="rId3" xr:uid="{C8440C79-0140-4CD4-B542-181BDF1CB116}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{5373F120-BEB4-4A6F-B307-1F2317FA154E}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{3893DB44-699A-47E7-963A-4B67DBF6318D}"/>
-    <hyperlink ref="D10" r:id="rId6" xr:uid="{9B3D69F5-4332-4A85-B4AC-0BACE3170975}"/>
-    <hyperlink ref="D3" r:id="rId7" xr:uid="{D254CF6C-1D58-4F86-9483-C32AC4C0E304}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{2373D359-BA58-4CFE-8D92-4DC17D3F8FAC}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{9B3D69F5-4332-4A85-B4AC-0BACE3170975}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>